--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/jiaanpei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/Jiaanpei/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>岗位</t>
   </si>
   <si>
-    <t>6.26-6.30</t>
-  </si>
-  <si>
     <t>本周工作</t>
   </si>
   <si>
@@ -45,14 +42,6 @@
   </si>
   <si>
     <t>王昊尘</t>
-  </si>
-  <si>
-    <t>1.基本数据分析：数据库新建表11张、生成分析结果及报表23张；2.数据结构优化：完成计划制定，和研发团队完成排期；3. 完成新结构理论验证</t>
-  </si>
-  <si>
-    <t>1.常规数据分析；
-2. 跟进研发团队结构优化进度；
-3.数据结构优化进一步验证，争取初步建模</t>
   </si>
   <si>
     <t>7.3-7.7</t>
@@ -103,6 +92,15 @@
   </si>
   <si>
     <t>1. 完成嘉利和优闪订两家供应商的数据对接和分析；2. 修理厂app的OE唯一性校验；3. 跟进杭州和嘉兴试点进度；4. 跟进理赔、定损工具和驾安配平台的系统对接和数据传输</t>
+  </si>
+  <si>
+    <t>7.31-8.4</t>
+  </si>
+  <si>
+    <t>1. 浙江供应商上货数据对接与分析；2.完成其他试点地区相关数据分析需求；3.协助研发部门进行OE唯一性校验和OE自动匹配；4.与明觉商讨开放VIN解析接口，与浙江联保商讨引入配件数据清洗系统</t>
+  </si>
+  <si>
+    <t>1. 优闪订和车享配数据对接，及与浙江，杭州本地化价格对比分析；2.其他试点地区供货数据清洗及对比分析；3.开始图数据库方案设计，并完成样例数据库建立；4.初步开启与明觉的商务谈判</t>
   </si>
 </sst>
 </file>
@@ -361,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,9 +413,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,20 +705,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="15"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -733,26 +728,26 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>8</v>
+      <c r="F2" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="11"/>
@@ -766,19 +761,19 @@
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="12"/>
@@ -788,15 +783,15 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
@@ -808,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="13"/>
@@ -822,19 +817,19 @@
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="14"/>
@@ -848,7 +843,7 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>19</v>
@@ -857,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="13"/>

--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>姓名</t>
   </si>
@@ -44,26 +44,6 @@
     <t>王昊尘</t>
   </si>
   <si>
-    <t>7.3-7.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.浙江试点工作开展；2.与浙江联保探讨数据对接；3.基本数据分析；4.跟进平台数据架构改革落实方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.基本数据分析；2.确立平台数据三层架构，并已给出具体方案；3.与中汽研初步探讨数据合作方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据研发与分析</t>
   </si>
   <si>
@@ -101,6 +81,12 @@
   </si>
   <si>
     <t>1. 优闪订和车享配数据对接，及与浙江，杭州本地化价格对比分析；2.其他试点地区供货数据清洗及对比分析；3.开始图数据库方案设计，并完成样例数据库建立；4.初步开启与明觉的商务谈判</t>
+  </si>
+  <si>
+    <t>8.7-8.11</t>
+  </si>
+  <si>
+    <t>1. 福耀玻璃数据对接；2. 嘉利供货数据对接与分析；3.学习VIN解析规则，初步做出规划；4.车型定义规则确定</t>
   </si>
 </sst>
 </file>
@@ -359,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -418,14 +404,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,11 +689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
@@ -728,26 +719,26 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>5</v>
+      <c r="C2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="11"/>
@@ -772,8 +763,8 @@
       <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>6</v>
+      <c r="G3" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="12"/>
@@ -783,27 +774,27 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="323" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="13"/>
@@ -828,8 +819,8 @@
       <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>7</v>
+      <c r="G5" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="14"/>
@@ -842,17 +833,15 @@
     <row r="6" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>8</v>

--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/Jiaanpei/Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan\Documents\GitHub\jiaanpei\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16095" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -86,24 +86,29 @@
     <t>8.7-8.11</t>
   </si>
   <si>
-    <t>1. 福耀玻璃数据对接；2. 嘉利供货数据对接与分析；3.学习VIN解析规则，初步做出规划；4.车型定义规则确定</t>
+    <t>1. 基本数据分析；2.供货数据对接和更新（可能有优闪订、车享配、福耀和路鹏等）；3.完成对汽车品牌、车系编码，并细化车型定义和编码规则；4.与明觉、翱特交流数据配件数据结构等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 后台及本地数据提取和分析；2. 嘉利、优闪订供货数据更新；3.启动和湖北乘用车供应商数据对接（路鹏）；4.参与询价单数据清洗、BI报表制作方案讨论；5.开始筹划建立平台车型库，并进行编码（初步计划对常见115乘用车品牌，14商用车品牌，以及1600余车系和16000余车型进行编码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,13 +417,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -689,20 +697,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="4" max="4" width="44.375" customWidth="1"/>
+    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -718,7 +726,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -748,7 +756,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
@@ -774,7 +782,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="323" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="323.10000000000002" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
@@ -782,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
@@ -804,7 +812,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
@@ -830,10 +838,12 @@
       <c r="M5" s="7"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="114.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="18" t="s">
         <v>16</v>
       </c>

--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan\Documents\GitHub\jiaanpei\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/Jiaanpei/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16095" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,6 @@
     <t>数据研发与分析</t>
   </si>
   <si>
-    <t>7.10-7.14</t>
-  </si>
-  <si>
-    <t>1.基本数据分析；2.确立平台数据架构；3.浙江试点相关工作：参与方案编写、流程梳理和app开发、数据接入等</t>
-  </si>
-  <si>
-    <t>1.浙江试点相关工作；2.上货数据架构设计；3.车享配数据分析整理；4.验证明觉数据准确性</t>
-  </si>
-  <si>
     <t>7.17-7.21</t>
   </si>
   <si>
@@ -92,23 +83,32 @@
   <si>
     <t>1. 后台及本地数据提取和分析；2. 嘉利、优闪订供货数据更新；3.启动和湖北乘用车供应商数据对接（路鹏）；4.参与询价单数据清洗、BI报表制作方案讨论；5.开始筹划建立平台车型库，并进行编码（初步计划对常见115乘用车品牌，14商用车品牌，以及1600余车系和16000余车型进行编码）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.18</t>
+  </si>
+  <si>
+    <t>1.数据分析；2.数据库状态标识统一化；3.完善定损机构代码和名称对应关系；</t>
+  </si>
+  <si>
+    <t>1.运营数据分析——客服每日周月统计（王文），绵阳每日周月订单及供应商供货情况统计（王国建），每日9、12、15点定时询价单提醒推送（王文），每日询价单及汇总（周彬），出险车主数量更新（王旸）；2.明觉、正时、Audatex+globalInPart数据及业务领域交流</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,6 +135,22 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -347,8 +363,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -416,8 +436,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -697,20 +721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="44.375" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -726,7 +750,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -756,7 +780,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
@@ -782,21 +806,21 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="323.10000000000002" customHeight="1">
+    <row r="4" spans="1:14" ht="323" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>10</v>
@@ -812,7 +836,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
@@ -838,7 +862,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="114.75" customHeight="1">
+    <row r="6" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
@@ -848,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>11</v>

--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -47,15 +47,6 @@
     <t>数据研发与分析</t>
   </si>
   <si>
-    <t>7.17-7.21</t>
-  </si>
-  <si>
-    <t>1.浙江相关试点准备工作；2. 车享配供货数据（上汽大众、上汽通用）整理与分析；3.数据架构、表结构设计</t>
-  </si>
-  <si>
-    <t>1.加速开展嘉兴试点工作；2.嘉利供货数据整理与分析（奔驰、宝马）；3. 完成OE匹配全流程的后台数据架构</t>
-  </si>
-  <si>
     <t>7.24-7.28</t>
   </si>
   <si>
@@ -92,13 +83,22 @@
   </si>
   <si>
     <t>1.运营数据分析——客服每日周月统计（王文），绵阳每日周月订单及供应商供货情况统计（王国建），每日9、12、15点定时询价单提醒推送（王文），每日询价单及汇总（周彬），出险车主数量更新（王旸）；2.明觉、正时、Audatex+globalInPart数据及业务领域交流</t>
+  </si>
+  <si>
+    <t>1. 运营数据提取、分析，优化脚本，合并相似需求。目前主要提取四部分数据：平台接收的定损单信息、客服工作统计、订单统计及供应商报价情况统计。2.完成170余品牌大类编码、建立与理赔系统（东升）品牌编码的对应关系。3. 建立行政区划代码与人保定损机构代码及名称的对应关系。</t>
+  </si>
+  <si>
+    <t>8.21-8.25</t>
+  </si>
+  <si>
+    <t>1. 与运营部门确定完整的报表格式，细化每个字段的定义，并编写、修改或优化SQL脚本。2. 完成报表软件部署后，测试软件性能，并了解学习其使用方法和功能。3.浙江系统上线后，测试明觉解析OE与供货数据OE匹配率。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +151,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -370,7 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,6 +449,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -719,19 +738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -758,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>15</v>
@@ -780,10 +799,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -813,17 +832,17 @@
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>7</v>
@@ -836,10 +855,10 @@
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -862,11 +881,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
+      <c r="C6" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>16</v>
@@ -875,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>8</v>
@@ -888,6 +907,12 @@
       <c r="M6" s="7"/>
       <c r="N6" s="10"/>
     </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="C8" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/周报.xlsx
+++ b/Report/周报.xlsx
@@ -47,15 +47,6 @@
     <t>数据研发与分析</t>
   </si>
   <si>
-    <t>7.24-7.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 车享配数据与浙江、杭州本地化价格分析；2. 综合浙江分公司意见，明确需求（系统及业务）；3. 确定现有上货数据表结构和对应关系 </t>
-  </si>
-  <si>
-    <t>1. 完成嘉利和优闪订两家供应商的数据对接和分析；2. 修理厂app的OE唯一性校验；3. 跟进杭州和嘉兴试点进度；4. 跟进理赔、定损工具和驾安配平台的系统对接和数据传输</t>
-  </si>
-  <si>
     <t>7.31-8.4</t>
   </si>
   <si>
@@ -92,6 +83,15 @@
   </si>
   <si>
     <t>1. 与运营部门确定完整的报表格式，细化每个字段的定义，并编写、修改或优化SQL脚本。2. 完成报表软件部署后，测试软件性能，并了解学习其使用方法和功能。3.浙江系统上线后，测试明觉解析OE与供货数据OE匹配率。</t>
+  </si>
+  <si>
+    <t>8.28-9.1</t>
+  </si>
+  <si>
+    <t>1.协助完成帆软报表工具的部署。并完成定损单信息、客服工作信息和订单信息三张查询量较高的报表的制作和上传。其中订单信息已部署至APP端。2.完成相关报表权限分配，包括技术部门、运营、客服和一线团队等。3.协助运营部门完成月度对账、结算等提数需求。</t>
+  </si>
+  <si>
+    <t>1.跟进数据分析需求，周二前与运营部门确定提数口径、模板及定义等相关信息。2.完成其余报表的制作，并部署至PC端和app端。3. 细化报表内容，并根据不同部门的需求，对相关报表进行格式化调整。</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,7 +453,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -740,17 +747,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -777,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>12</v>
@@ -802,10 +809,10 @@
     <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -829,23 +836,23 @@
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="13"/>
@@ -861,7 +868,7 @@
       <c r="C5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -887,8 +894,8 @@
       <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>16</v>
+      <c r="D6" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -897,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="13"/>
@@ -909,9 +916,10 @@
     </row>
     <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
